--- a/RelatorioConversoesPorAnoMesSemana_Ano_2023.xlsx
+++ b/RelatorioConversoesPorAnoMesSemana_Ano_2023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Ano</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -145,7 +160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,7 +505,77 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
